--- a/xlsx/_wiki_春晓_intext.xlsx
+++ b/xlsx/_wiki_春晓_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>春晓</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://zh-min-nan.wikipedia.org/wiki/Chhun-hi%C3%A1u</t>
@@ -432,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,29 +684,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_春晓_intext.xlsx
+++ b/xlsx/_wiki_春晓_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>春晓</t>
   </si>
@@ -23,55 +23,46 @@
     <t>https://zh.wikipedia.org/zh-cn/%E6%98%A5%E6%99%93</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
     <t>百科全书</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E6%99%93%E6%B2%B9%E6%B0%94%E7%94%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%98%A5%E6%99%93%E6%B2%B9%E6%B0%94%E7%94%B0</t>
   </si>
   <si>
     <t>春晓油气田</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A8%80%E7%B5%95%E5%8F%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%94%E8%A8%80%E7%B5%95%E5%8F%A5</t>
   </si>
   <si>
     <t>五言绝句</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E6%9C%9D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%94%90%E6%9C%9D</t>
   </si>
   <si>
     <t>唐朝</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%97%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%AF%97%E4%BA%BA</t>
   </si>
   <si>
     <t>诗人</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E6%B5%A9%E7%84%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AD%9F%E6%B5%A9%E7%84%B6</t>
   </si>
   <si>
     <t>孟浩然</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E5%AD%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%98%A5%E5%AD%A3</t>
   </si>
   <si>
     <t>春季</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E6%99%93</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
   <si>
     <t>https://zh-min-nan.wikipedia.org/wiki/Chhun-hi%C3%A1u</t>
@@ -426,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,52 +626,6 @@
         <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="n">
         <v>1</v>
       </c>
     </row>
